--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26252AD0-94D8-45FA-A6D1-242D0F860C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA095F17-15EF-4876-9A82-44F2AEA63A0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54600" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44880" yWindow="105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,47 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>i</t>
   </si>
   <si>
-    <t>media/ddnb.png</t>
-  </si>
-  <si>
-    <t>media/djnb.png</t>
-  </si>
-  <si>
-    <t>media/dnnb.png</t>
-  </si>
-  <si>
-    <t>media/dinb.png</t>
-  </si>
-  <si>
-    <t>media/djnb_r.png</t>
-  </si>
-  <si>
-    <t>media/dnnb_r.png</t>
-  </si>
-  <si>
-    <t>media/dinb_r.png</t>
-  </si>
-  <si>
-    <t>media/ddnb_r.png</t>
-  </si>
-  <si>
-    <t>media/djnb_g.png</t>
-  </si>
-  <si>
-    <t>media/dnnb_g.png</t>
-  </si>
-  <si>
-    <t>media/dinb_g.png</t>
-  </si>
-  <si>
-    <t>media/ddnb_g.png</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
@@ -76,42 +40,6 @@
     <t>Hand</t>
   </si>
   <si>
-    <t>media/dfnb.png</t>
-  </si>
-  <si>
-    <t>media/dgnb.png</t>
-  </si>
-  <si>
-    <t>media/dcnb.png</t>
-  </si>
-  <si>
-    <t>media/dmnb.png</t>
-  </si>
-  <si>
-    <t>media/dfnb_r.png</t>
-  </si>
-  <si>
-    <t>media/dgnb_r.png</t>
-  </si>
-  <si>
-    <t>media/dcnb_r.png</t>
-  </si>
-  <si>
-    <t>media/dmnb_r.png</t>
-  </si>
-  <si>
-    <t>media/dfnb_g.png</t>
-  </si>
-  <si>
-    <t>media/dgnb_g.png</t>
-  </si>
-  <si>
-    <t>media/dcnb_g.png</t>
-  </si>
-  <si>
-    <t>media/dmnb_g.png</t>
-  </si>
-  <si>
     <t>X_pos</t>
   </si>
   <si>
@@ -124,79 +52,40 @@
     <t>Sound_N</t>
   </si>
   <si>
+    <t>Beep</t>
+  </si>
+  <si>
+    <t>KeyNum</t>
+  </si>
+  <si>
+    <t>Symb</t>
+  </si>
+  <si>
+    <t>StimNum</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>media/coin.wav</t>
+  </si>
+  <si>
     <t>media/buzz.wav</t>
   </si>
   <si>
-    <t>media/coin.wav</t>
-  </si>
-  <si>
-    <t>Beep</t>
-  </si>
-  <si>
     <t>media/beep.wav</t>
   </si>
   <si>
-    <t>KeyNum</t>
-  </si>
-  <si>
-    <t>Symb</t>
-  </si>
-  <si>
-    <t>Symb_R</t>
-  </si>
-  <si>
-    <t>Symb_G</t>
-  </si>
-  <si>
-    <t>StimNum</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>media/hand_rev.png</t>
-  </si>
-  <si>
-    <t>X_pos_rev</t>
-  </si>
-  <si>
-    <t>Y_pos_rev</t>
-  </si>
-  <si>
-    <t>media/denb.png</t>
-  </si>
-  <si>
-    <t>media/denb_r.png</t>
-  </si>
-  <si>
-    <t>media/denb_g.png</t>
-  </si>
-  <si>
-    <t>media/dhnb.png</t>
-  </si>
-  <si>
-    <t>media/dhnb_r.png</t>
-  </si>
-  <si>
-    <t>media/dhnb_g.png</t>
-  </si>
-  <si>
-    <t>media/dknb.png</t>
-  </si>
-  <si>
-    <t>media/dknb_r.png</t>
-  </si>
-  <si>
-    <t>media/dknb_g.png</t>
-  </si>
-  <si>
-    <t>media/danb.png</t>
-  </si>
-  <si>
-    <t>media/danb_r.png</t>
-  </si>
-  <si>
-    <t>media/danb_g.png</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -232,8 +121,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,147 +406,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" customWidth="1"/>
-    <col min="12" max="12" width="16.36328125" customWidth="1"/>
-    <col min="13" max="13" width="17.08984375" customWidth="1"/>
-    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="H2">
+      <c r="F2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I2">
-        <v>-9.9500000000000005E-2</v>
-      </c>
-      <c r="J2">
-        <v>0.04</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>1.4E-2</v>
       </c>
-      <c r="H3">
+      <c r="F3">
         <v>0.1</v>
       </c>
-      <c r="I3">
-        <v>-5.9499999999999997E-2</v>
-      </c>
-      <c r="J3">
-        <v>0.08</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -664,125 +515,77 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H4">
+      <c r="F4">
         <v>0.08</v>
       </c>
-      <c r="I4">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="J4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
         <v>0.1</v>
       </c>
-      <c r="H5">
+      <c r="F5">
         <v>0.04</v>
       </c>
-      <c r="I5">
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="J5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6">
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="H6">
+      <c r="F6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I6">
-        <v>-9.8799999999999999E-2</v>
-      </c>
-      <c r="J6">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7">
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
         <v>1.4E-2</v>
       </c>
-      <c r="H7">
+      <c r="F7">
         <v>0.1</v>
       </c>
-      <c r="I7">
-        <v>-5.9499999999999997E-2</v>
-      </c>
-      <c r="J7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -792,186 +595,34 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8">
+      <c r="E8">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H8">
+      <c r="F8">
         <v>0.08</v>
       </c>
-      <c r="I8">
-        <v>-1.7500000000000002E-2</v>
-      </c>
-      <c r="J8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9">
+      <c r="E9">
         <v>0.1</v>
       </c>
-      <c r="H9">
+      <c r="F9">
         <v>0.04</v>
-      </c>
-      <c r="I9">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="J9">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="H10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I10">
-        <v>-9.8799999999999999E-2</v>
-      </c>
-      <c r="J10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11">
-        <v>1.4E-2</v>
-      </c>
-      <c r="H11">
-        <v>0.1</v>
-      </c>
-      <c r="I11">
-        <v>-5.9499999999999997E-2</v>
-      </c>
-      <c r="J11">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="H12">
-        <v>0.08</v>
-      </c>
-      <c r="I12">
-        <v>-1.7500000000000002E-2</v>
-      </c>
-      <c r="J12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13">
-        <v>0.1</v>
-      </c>
-      <c r="H13">
-        <v>0.04</v>
-      </c>
-      <c r="I13">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="J13">
-        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA095F17-15EF-4876-9A82-44F2AEA63A0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372C56CF-EF77-445B-B61C-4014670C68BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="30825" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>i</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -409,7 +418,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -458,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -490,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -510,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -530,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>3</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,17 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372C56CF-EF77-445B-B61C-4014670C68BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B6A62B-1DCF-479D-9273-07E0687DF8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="30825" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="25410" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -34,9 +42,6 @@
     <t>l</t>
   </si>
   <si>
-    <t>media/hand.png</t>
-  </si>
-  <si>
     <t>Hand</t>
   </si>
   <si>
@@ -95,6 +100,9 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>media/hand2.png</t>
   </si>
 </sst>
 </file>
@@ -418,7 +426,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,34 +440,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -467,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -476,22 +484,22 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>-3.7999999999999999E-2</v>
+        <v>-0.14950000000000002</v>
       </c>
       <c r="F2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -499,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -508,10 +516,10 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1.4E-2</v>
+        <v>-0.1095</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -519,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -528,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>5.7000000000000002E-2</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="F4">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -539,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -548,10 +556,10 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.1</v>
+        <v>-1.4200000000000004E-2</v>
       </c>
       <c r="F5">
-        <v>0.04</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -565,10 +573,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>-3.7999999999999999E-2</v>
+        <v>1.2000000000000004E-2</v>
       </c>
       <c r="F6">
         <v>7.4999999999999997E-2</v>
@@ -585,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>1.4E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F7">
         <v>0.1</v>
@@ -605,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>5.7000000000000002E-2</v>
+        <v>0.10700000000000001</v>
       </c>
       <c r="F8">
         <v>0.08</v>
@@ -625,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="F9">
         <v>0.04</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B6A62B-1DCF-479D-9273-07E0687DF8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E55E74F-9510-4033-97D3-8A7DEED7837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="25410" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>-0.14950000000000002</v>
+        <v>-0.24950000000000003</v>
       </c>
       <c r="F2">
         <v>0.04</v>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>-0.1095</v>
+        <v>-0.20950000000000002</v>
       </c>
       <c r="F3">
         <v>0.08</v>
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>-6.7000000000000004E-2</v>
+        <v>-0.16700000000000001</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>-1.4200000000000004E-2</v>
+        <v>-0.11420000000000001</v>
       </c>
       <c r="F5">
         <v>7.4999999999999997E-2</v>
@@ -576,7 +576,7 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>1.2000000000000004E-2</v>
+        <v>0.11200000000000002</v>
       </c>
       <c r="F6">
         <v>7.4999999999999997E-2</v>
@@ -596,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <v>6.4000000000000001E-2</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="F7">
         <v>0.1</v>
@@ -616,7 +616,7 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>0.10700000000000001</v>
+        <v>0.20700000000000002</v>
       </c>
       <c r="F8">
         <v>0.08</v>
@@ -636,7 +636,7 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>0.15000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="F9">
         <v>0.04</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E55E74F-9510-4033-97D3-8A7DEED7837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2F5B95-0859-4BC6-AB09-881A84070224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,7 +487,7 @@
         <v>-0.24950000000000003</v>
       </c>
       <c r="F2">
-        <v>0.04</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -516,10 +516,10 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>-0.20950000000000002</v>
+        <v>-0.19950000000000001</v>
       </c>
       <c r="F3">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -536,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>-0.16700000000000001</v>
+        <v>-0.13700000000000001</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -556,10 +556,10 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>-0.11420000000000001</v>
+        <v>-9.4200000000000006E-2</v>
       </c>
       <c r="F5">
-        <v>7.4999999999999997E-2</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -576,10 +576,10 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>0.11200000000000002</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -599,7 +599,7 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -619,7 +619,7 @@
         <v>0.20700000000000002</v>
       </c>
       <c r="F8">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -639,7 +639,7 @@
         <v>0.25</v>
       </c>
       <c r="F9">
-        <v>0.04</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2F5B95-0859-4BC6-AB09-881A84070224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DB7CEC-5D90-421E-BBC8-46CD7AB3C32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,7 +519,7 @@
         <v>-0.19950000000000001</v>
       </c>
       <c r="F3">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -536,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>-0.13700000000000001</v>
+        <v>-0.127</v>
       </c>
       <c r="F4">
-        <v>0.15</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>-9.4200000000000006E-2</v>
+        <v>-8.8200000000000001E-2</v>
       </c>
       <c r="F5">
         <v>0.115</v>
@@ -576,7 +576,7 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>8.2000000000000003E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F6">
         <v>0.115</v>
@@ -596,10 +596,10 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <v>0.16400000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="F7">
-        <v>0.15</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -619,7 +619,7 @@
         <v>0.20700000000000002</v>
       </c>
       <c r="F8">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DB7CEC-5D90-421E-BBC8-46CD7AB3C32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C2EDF9-AEE4-4A19-AB53-F54823E4892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,10 +516,10 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>-0.19950000000000001</v>
+        <v>-0.2</v>
       </c>
       <c r="F3">
-        <v>0.12</v>
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>-0.127</v>
+        <v>-0.14199999999999999</v>
       </c>
       <c r="F4">
         <v>0.13500000000000001</v>
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>-8.8200000000000001E-2</v>
+        <v>-8.8499999999999995E-2</v>
       </c>
       <c r="F5">
         <v>0.115</v>
@@ -576,7 +576,7 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>7.8E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F6">
         <v>0.115</v>
@@ -596,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <v>0.124</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F7">
         <v>0.13500000000000001</v>
@@ -616,10 +616,10 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>0.20700000000000002</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="F8">
-        <v>0.12</v>
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C2EDF9-AEE4-4A19-AB53-F54823E4892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2826AF2E-E51A-4712-ABAA-1EC02AFAFB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,7 +519,7 @@
         <v>-0.2</v>
       </c>
       <c r="F3">
-        <v>0.11700000000000001</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>-0.14199999999999999</v>
+        <v>-0.155</v>
       </c>
       <c r="F4">
         <v>0.13500000000000001</v>
@@ -576,7 +576,7 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>8.2000000000000003E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="F6">
         <v>0.115</v>
@@ -596,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <v>0.14399999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="F7">
         <v>0.13500000000000001</v>
@@ -616,10 +616,10 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>0.22700000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="F8">
-        <v>0.11700000000000001</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2826AF2E-E51A-4712-ABAA-1EC02AFAFB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596E5D93-D808-4B95-968C-9288ABB48363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>-0.2</v>
+        <v>-0.20499999999999999</v>
       </c>
       <c r="F3">
         <v>0.112</v>
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>-0.155</v>
+        <v>-0.15</v>
       </c>
       <c r="F4">
         <v>0.13500000000000001</v>
@@ -596,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <v>0.16400000000000001</v>
+        <v>0.14949999999999999</v>
       </c>
       <c r="F7">
         <v>0.13500000000000001</v>
@@ -616,7 +616,7 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>0.22</v>
+        <v>0.19450000000000001</v>
       </c>
       <c r="F8">
         <v>0.112</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596E5D93-D808-4B95-968C-9288ABB48363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7376B4E1-AB82-4AB1-96A8-1E852AA80443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,7 +616,7 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>0.19450000000000001</v>
+        <v>0.20549999999999999</v>
       </c>
       <c r="F8">
         <v>0.112</v>
